--- a/Python/Data/Final/brain.xlsx
+++ b/Python/Data/Final/brain.xlsx
@@ -7,24 +7,22 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="AZ_missing_cts" sheetId="1" r:id="rId1"/>
+    <sheet name="Az_missing_cts" sheetId="1" r:id="rId1"/>
     <sheet name="Asctb_missing_cts" sheetId="2" r:id="rId2"/>
-    <sheet name="AZ_incorrect_cts" sheetId="3" r:id="rId3"/>
-    <sheet name="Asctb_incorrect_cts" sheetId="4" r:id="rId4"/>
-    <sheet name="AZ_ASCTB_Cts_perfect_matches" sheetId="5" r:id="rId5"/>
-    <sheet name="AZ_cts_not_found_in_ebi" sheetId="6" r:id="rId6"/>
-    <sheet name="Asctb_cts_not_found_in_ebi" sheetId="7" r:id="rId7"/>
-    <sheet name="AZ_mismatches_summary" sheetId="8" r:id="rId8"/>
-    <sheet name="Asctb_mismatches_summary" sheetId="9" r:id="rId9"/>
-    <sheet name="Asctb_cts_mismatch_final" sheetId="10" r:id="rId10"/>
-    <sheet name="AZ_cts_mismatch_final" sheetId="11" r:id="rId11"/>
+    <sheet name="Az_Asctb_cts_perfect_matches" sheetId="3" r:id="rId3"/>
+    <sheet name="Az_incorrect_cts" sheetId="4" r:id="rId4"/>
+    <sheet name="Asctb_incorrect_cts" sheetId="5" r:id="rId5"/>
+    <sheet name="Az_match_tree_corsswalk" sheetId="6" r:id="rId6"/>
+    <sheet name="Asctb_match_tree_corsswalk" sheetId="7" r:id="rId7"/>
+    <sheet name="Asctb_cts_mismatch_final" sheetId="8" r:id="rId8"/>
+    <sheet name="Az_cts_mismatch_final" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="41">
   <si>
     <t>CT/ID</t>
   </si>
@@ -523,128 +521,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
@@ -668,18 +544,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -710,33 +592,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -756,28 +611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -1043,7 +877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -1077,4 +911,126 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>